--- a/virusPlace.xlsx
+++ b/virusPlace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilapi\PycharmProjects\virusmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8E3A12-8A36-4A78-BD3D-C2847455EDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E351E0F8-07EE-489E-BF54-F389AC835705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{17344410-DBC1-4F42-92B1-FA48A5DB8DA9}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{C73A24A1-B635-4AAA-A405-5339C1BB0CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="156">
   <si>
     <t>嘉定区双单路1509弄龙湖郦城</t>
   </si>
@@ -855,791 +855,3407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B552D1-81B1-422E-9869-BFB35A476D9D}">
-  <dimension ref="A1:A156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA5C847-2CE7-4AD5-9D37-586655970208}">
+  <dimension ref="A1:C312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>121.25250699999999</v>
+      </c>
+      <c r="C1">
+        <v>31.326741999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>121.25005899999999</v>
+      </c>
+      <c r="C2">
+        <v>31.377873999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>121.288358</v>
+      </c>
+      <c r="C3">
+        <v>31.331365999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>121.33055299999999</v>
+      </c>
+      <c r="C4">
+        <v>31.347629000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>121.29599399999999</v>
+      </c>
+      <c r="C5">
+        <v>31.335224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>121.26743999999999</v>
+      </c>
+      <c r="C6">
+        <v>31.324290000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>121.25994</v>
+      </c>
+      <c r="C7">
+        <v>31.322333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>121.274209</v>
+      </c>
+      <c r="C8">
+        <v>31.319998999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>121.329385</v>
+      </c>
+      <c r="C9">
+        <v>31.417093999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>121.268483</v>
+      </c>
+      <c r="C10">
+        <v>31.354514000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>121.26194099999999</v>
+      </c>
+      <c r="C11">
+        <v>31.366831999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>121.338852</v>
+      </c>
+      <c r="C12">
+        <v>31.263337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>121.283272</v>
+      </c>
+      <c r="C13">
+        <v>31.329688999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>121.219598</v>
+      </c>
+      <c r="C14">
+        <v>31.383548000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>121.218974</v>
+      </c>
+      <c r="C15">
+        <v>31.382928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>121.327056</v>
+      </c>
+      <c r="C16">
+        <v>31.344327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>121.276686</v>
+      </c>
+      <c r="C17">
+        <v>31.334631000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>121.26746199999999</v>
+      </c>
+      <c r="C18">
+        <v>31.383794999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>121.51607300000001</v>
+      </c>
+      <c r="C19">
+        <v>30.954626999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>121.432024</v>
+      </c>
+      <c r="C20">
+        <v>31.350242000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>121.44475</v>
+      </c>
+      <c r="C21">
+        <v>31.394410000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>121.504424</v>
+      </c>
+      <c r="C22">
+        <v>31.399511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>121.42295</v>
+      </c>
+      <c r="C23">
+        <v>31.41893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>121.495726</v>
+      </c>
+      <c r="C24">
+        <v>31.384998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>121.389838</v>
+      </c>
+      <c r="C25">
+        <v>31.450614000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>121.45398400000001</v>
+      </c>
+      <c r="C26">
+        <v>31.338626999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>121.488715</v>
+      </c>
+      <c r="C27">
+        <v>31.341286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>121.41016</v>
+      </c>
+      <c r="C28">
+        <v>31.275428999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>121.37838000000001</v>
+      </c>
+      <c r="C29">
+        <v>31.418040000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>121.337374</v>
+      </c>
+      <c r="C30">
+        <v>31.392178000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>121.38189</v>
+      </c>
+      <c r="C31">
+        <v>31.442174000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>121.35202</v>
+      </c>
+      <c r="C32">
+        <v>31.347000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>121.35860099999999</v>
+      </c>
+      <c r="C33">
+        <v>31.352141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>121.45221100000001</v>
+      </c>
+      <c r="C34">
+        <v>31.335927000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>121.495914</v>
+      </c>
+      <c r="C35">
+        <v>31.351049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>121.402315</v>
+      </c>
+      <c r="C36">
+        <v>31.446231000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>121.44700899999999</v>
+      </c>
+      <c r="C37">
+        <v>31.120418999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>121.42954</v>
+      </c>
+      <c r="C38">
+        <v>31.189025000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>121.42396599999999</v>
+      </c>
+      <c r="C39">
+        <v>31.139043000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>121.41758</v>
+      </c>
+      <c r="C40">
+        <v>31.135739999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>121.45837899999999</v>
+      </c>
+      <c r="C41">
+        <v>31.208243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>121.43564000000001</v>
+      </c>
+      <c r="C42">
+        <v>31.181830000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>121.42332399999999</v>
+      </c>
+      <c r="C43">
+        <v>31.170902000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>121.42332399999999</v>
+      </c>
+      <c r="C44">
+        <v>31.170902000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>121.409381</v>
+      </c>
+      <c r="C45">
+        <v>31.165617000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>121.441774</v>
+      </c>
+      <c r="C47">
+        <v>31.134567000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>121.422488</v>
+      </c>
+      <c r="C48">
+        <v>31.139068000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>122.32386700000001</v>
+      </c>
+      <c r="C49">
+        <v>29.97176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>122.32386700000001</v>
+      </c>
+      <c r="C51">
+        <v>29.97176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>122.32386700000001</v>
+      </c>
+      <c r="C52">
+        <v>29.97176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>122.32386700000001</v>
+      </c>
+      <c r="C53">
+        <v>29.97176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>121.51035</v>
+      </c>
+      <c r="C54">
+        <v>31.293517000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>121.323789</v>
+      </c>
+      <c r="C55">
+        <v>31.128537000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>121.269538</v>
+      </c>
+      <c r="C56">
+        <v>31.005680000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>121.226411</v>
+      </c>
+      <c r="C57">
+        <v>31.024526000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>121.311708</v>
+      </c>
+      <c r="C58">
+        <v>31.136883999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>121.28601999999999</v>
+      </c>
+      <c r="C59">
+        <v>31.057487999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>121.337001</v>
+      </c>
+      <c r="C60">
+        <v>31.070181000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>121.317814</v>
+      </c>
+      <c r="C61">
+        <v>31.035924000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>121.248923</v>
+      </c>
+      <c r="C62">
+        <v>31.020576999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>121.22363799999999</v>
+      </c>
+      <c r="C63">
+        <v>31.017126999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>121.321326</v>
+      </c>
+      <c r="C64">
+        <v>31.145211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>121.31778300000001</v>
+      </c>
+      <c r="C65">
+        <v>31.148731999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>121.33692499999999</v>
+      </c>
+      <c r="C66">
+        <v>31.117660000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>121.23077499999999</v>
+      </c>
+      <c r="C67">
+        <v>31.135974000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>121.270822</v>
+      </c>
+      <c r="C68">
+        <v>31.077691999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>121.32892</v>
+      </c>
+      <c r="C69">
+        <v>31.149339000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>121.317723</v>
+      </c>
+      <c r="C70">
+        <v>31.152014999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>121.33280600000001</v>
+      </c>
+      <c r="C71">
+        <v>31.126740999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>121.290854</v>
+      </c>
+      <c r="C72">
+        <v>31.029876999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>121.28668399999999</v>
+      </c>
+      <c r="C73">
+        <v>30.971800000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>121.296961</v>
+      </c>
+      <c r="C74">
+        <v>31.087529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>121.337001</v>
+      </c>
+      <c r="C75">
+        <v>31.070181000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>121.576235</v>
+      </c>
+      <c r="C76">
+        <v>31.245031999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>121.59004400000001</v>
+      </c>
+      <c r="C77">
+        <v>31.268833999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>121.849131</v>
+      </c>
+      <c r="C78">
+        <v>31.069782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>121.507679</v>
+      </c>
+      <c r="C79">
+        <v>31.201554000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>121.581597</v>
+      </c>
+      <c r="C80">
+        <v>31.265408000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>121.596478</v>
+      </c>
+      <c r="C81">
+        <v>31.256582999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>121.5977</v>
+      </c>
+      <c r="C82">
+        <v>31.254750000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>121.73762000000001</v>
+      </c>
+      <c r="C83">
+        <v>31.054631000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>121.603741</v>
+      </c>
+      <c r="C84">
+        <v>31.279126999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>121.582328</v>
+      </c>
+      <c r="C85">
+        <v>31.262974</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>121.666663</v>
+      </c>
+      <c r="C86">
+        <v>31.113347000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>121.51427</v>
+      </c>
+      <c r="C87">
+        <v>31.206325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>121.574922</v>
+      </c>
+      <c r="C88">
+        <v>31.269503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>121.574922</v>
+      </c>
+      <c r="C89">
+        <v>31.269503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>121.60021399999999</v>
+      </c>
+      <c r="C90">
+        <v>31.261513999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>121.54325</v>
+      </c>
+      <c r="C91">
+        <v>31.211362000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>121.58737499999999</v>
+      </c>
+      <c r="C92">
+        <v>31.255571</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>121.591517</v>
+      </c>
+      <c r="C93">
+        <v>31.261139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>121.593739</v>
+      </c>
+      <c r="C94">
+        <v>31.260847999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>121.580918</v>
+      </c>
+      <c r="C95">
+        <v>31.267719</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>121.561571</v>
+      </c>
+      <c r="C96">
+        <v>31.252977999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>121.498648</v>
+      </c>
+      <c r="C97">
+        <v>31.275155000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>121.48039300000001</v>
+      </c>
+      <c r="C98">
+        <v>31.284206000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>121.49115999999999</v>
+      </c>
+      <c r="C99">
+        <v>31.27403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>121.485995</v>
+      </c>
+      <c r="C100">
+        <v>31.298375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>121.484289</v>
+      </c>
+      <c r="C101">
+        <v>31.256122000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>121.429176</v>
+      </c>
+      <c r="C103">
+        <v>31.200703000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>121.397459</v>
+      </c>
+      <c r="C104">
+        <v>31.194502</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>121.35744</v>
+      </c>
+      <c r="C105">
+        <v>31.146584000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>121.414261</v>
+      </c>
+      <c r="C106">
+        <v>31.131640999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>121.437279</v>
+      </c>
+      <c r="C107">
+        <v>31.024346999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>121.349683</v>
+      </c>
+      <c r="C108">
+        <v>31.133804999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>121.43490199999999</v>
+      </c>
+      <c r="C109">
+        <v>31.108976999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>121.28309</v>
+      </c>
+      <c r="C110">
+        <v>31.20112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>121.34902099999999</v>
+      </c>
+      <c r="C111">
+        <v>31.140798</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>121.400385</v>
+      </c>
+      <c r="C112">
+        <v>31.134347999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>121.517578</v>
+      </c>
+      <c r="C113">
+        <v>31.064906000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>121.432956</v>
+      </c>
+      <c r="C114">
+        <v>31.114861999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>121.428887</v>
+      </c>
+      <c r="C115">
+        <v>31.113057999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>121.422883</v>
+      </c>
+      <c r="C116">
+        <v>31.112258000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>121.423908</v>
+      </c>
+      <c r="C117">
+        <v>31.113130000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>121.423106</v>
+      </c>
+      <c r="C118">
+        <v>31.116969000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>121.390494</v>
+      </c>
+      <c r="C119">
+        <v>31.098687999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>121.43282499999999</v>
+      </c>
+      <c r="C120">
+        <v>31.122387</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>121.41612000000001</v>
+      </c>
+      <c r="C121">
+        <v>31.111740000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>121.44258499999999</v>
+      </c>
+      <c r="C122">
+        <v>31.105501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>121.375243</v>
+      </c>
+      <c r="C123">
+        <v>31.0959</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>121.494091</v>
+      </c>
+      <c r="C124">
+        <v>31.119247000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>121.51819999999999</v>
+      </c>
+      <c r="C125">
+        <v>31.108606999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>121.276233</v>
+      </c>
+      <c r="C126">
+        <v>31.245256999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>121.41777</v>
+      </c>
+      <c r="C127">
+        <v>31.12846</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>121.41741500000001</v>
+      </c>
+      <c r="C128">
+        <v>31.128443999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>121.402733</v>
+      </c>
+      <c r="C129">
+        <v>31.126422999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>121.432942</v>
+      </c>
+      <c r="C130">
+        <v>31.113094</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>121.402627</v>
+      </c>
+      <c r="C131">
+        <v>31.143667000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>121.42433</v>
+      </c>
+      <c r="C132">
+        <v>31.124099999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>121.425014</v>
+      </c>
+      <c r="C133">
+        <v>31.117502999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>121.427481</v>
+      </c>
+      <c r="C134">
+        <v>31.116313000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>121.42993300000001</v>
+      </c>
+      <c r="C135">
+        <v>31.112168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>121.42822099999999</v>
+      </c>
+      <c r="C136">
+        <v>31.106884000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>121.427627</v>
+      </c>
+      <c r="C137">
+        <v>31.115935</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>121.371781</v>
+      </c>
+      <c r="C138">
+        <v>31.130147999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>121.4588</v>
+      </c>
+      <c r="C139">
+        <v>31.086109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>121.3877</v>
+      </c>
+      <c r="C140">
+        <v>31.128288999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>121.26451900000001</v>
+      </c>
+      <c r="C141">
+        <v>31.196394000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>121.120925</v>
+      </c>
+      <c r="C142">
+        <v>31.148458000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>121.15881899999999</v>
+      </c>
+      <c r="C143">
+        <v>31.154496000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>121.15871199999999</v>
+      </c>
+      <c r="C144">
+        <v>31.144577000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>121.264287</v>
+      </c>
+      <c r="C145">
+        <v>31.156262000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>121.266398</v>
+      </c>
+      <c r="C146">
+        <v>31.173987</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>121.300978</v>
+      </c>
+      <c r="C147">
+        <v>31.181570000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>121.239796</v>
+      </c>
+      <c r="C148">
+        <v>31.157678000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>121.19605300000001</v>
+      </c>
+      <c r="C149">
+        <v>31.149273999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>121.477693</v>
+      </c>
+      <c r="C150">
+        <v>31.245719999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>121.472038</v>
+      </c>
+      <c r="C151">
+        <v>31.26192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>121.464206</v>
+      </c>
+      <c r="C152">
+        <v>31.269508999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>121.44015</v>
+      </c>
+      <c r="C153">
+        <v>31.229738000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>121.42458999999999</v>
+      </c>
+      <c r="C154">
+        <v>31.282454999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>121.474148</v>
+      </c>
+      <c r="C155">
+        <v>31.209059</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
+      </c>
+      <c r="B156">
+        <v>121.481362</v>
+      </c>
+      <c r="C156">
+        <v>31.201284999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>121.25250699999999</v>
+      </c>
+      <c r="C157">
+        <v>31.326741999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>121.25005899999999</v>
+      </c>
+      <c r="C158">
+        <v>31.377873999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>121.288358</v>
+      </c>
+      <c r="C159">
+        <v>31.331365999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>121.33055299999999</v>
+      </c>
+      <c r="C160">
+        <v>31.347629000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>121.29599399999999</v>
+      </c>
+      <c r="C161">
+        <v>31.335224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>121.26743999999999</v>
+      </c>
+      <c r="C162">
+        <v>31.324290000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>121.25994</v>
+      </c>
+      <c r="C163">
+        <v>31.322333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164">
+        <v>121.274209</v>
+      </c>
+      <c r="C164">
+        <v>31.319998999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>121.329385</v>
+      </c>
+      <c r="C165">
+        <v>31.417093999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>121.268483</v>
+      </c>
+      <c r="C166">
+        <v>31.354514000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>121.26194099999999</v>
+      </c>
+      <c r="C167">
+        <v>31.366831999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168">
+        <v>121.338852</v>
+      </c>
+      <c r="C168">
+        <v>31.263337</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>121.283272</v>
+      </c>
+      <c r="C169">
+        <v>31.329688999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170">
+        <v>121.219598</v>
+      </c>
+      <c r="C170">
+        <v>31.383548000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171">
+        <v>121.218974</v>
+      </c>
+      <c r="C171">
+        <v>31.382928</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172">
+        <v>121.327056</v>
+      </c>
+      <c r="C172">
+        <v>31.344327</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <v>121.276686</v>
+      </c>
+      <c r="C173">
+        <v>31.334631000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174">
+        <v>121.26746199999999</v>
+      </c>
+      <c r="C174">
+        <v>31.383794999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175">
+        <v>121.51607300000001</v>
+      </c>
+      <c r="C175">
+        <v>30.954626999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176">
+        <v>121.432024</v>
+      </c>
+      <c r="C176">
+        <v>31.350242000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177">
+        <v>121.44475</v>
+      </c>
+      <c r="C177">
+        <v>31.394410000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178">
+        <v>121.504424</v>
+      </c>
+      <c r="C178">
+        <v>31.399511</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179">
+        <v>121.42295</v>
+      </c>
+      <c r="C179">
+        <v>31.41893</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180">
+        <v>121.495726</v>
+      </c>
+      <c r="C180">
+        <v>31.384998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181">
+        <v>121.389838</v>
+      </c>
+      <c r="C181">
+        <v>31.450614000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182">
+        <v>121.45398400000001</v>
+      </c>
+      <c r="C182">
+        <v>31.338626999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B183">
+        <v>121.488715</v>
+      </c>
+      <c r="C183">
+        <v>31.341286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184">
+        <v>121.41016</v>
+      </c>
+      <c r="C184">
+        <v>31.275428999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>28</v>
+      </c>
+      <c r="B185">
+        <v>121.37838000000001</v>
+      </c>
+      <c r="C185">
+        <v>31.418040000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>29</v>
+      </c>
+      <c r="B186">
+        <v>121.337374</v>
+      </c>
+      <c r="C186">
+        <v>31.392178000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>30</v>
+      </c>
+      <c r="B187">
+        <v>121.38189</v>
+      </c>
+      <c r="C187">
+        <v>31.442174000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188">
+        <v>121.35202</v>
+      </c>
+      <c r="C188">
+        <v>31.347000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189">
+        <v>121.35860099999999</v>
+      </c>
+      <c r="C189">
+        <v>31.352141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190">
+        <v>121.45221100000001</v>
+      </c>
+      <c r="C190">
+        <v>31.335927000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>34</v>
+      </c>
+      <c r="B191">
+        <v>121.495914</v>
+      </c>
+      <c r="C191">
+        <v>31.351049</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192">
+        <v>121.402315</v>
+      </c>
+      <c r="C192">
+        <v>31.446231000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>36</v>
+      </c>
+      <c r="B193">
+        <v>121.44700899999999</v>
+      </c>
+      <c r="C193">
+        <v>31.120418999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194">
+        <v>121.42954</v>
+      </c>
+      <c r="C194">
+        <v>31.189025000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>38</v>
+      </c>
+      <c r="B195">
+        <v>121.42396599999999</v>
+      </c>
+      <c r="C195">
+        <v>31.139043000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>39</v>
+      </c>
+      <c r="B196">
+        <v>121.41758</v>
+      </c>
+      <c r="C196">
+        <v>31.135739999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197">
+        <v>121.45837899999999</v>
+      </c>
+      <c r="C197">
+        <v>31.208243</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>41</v>
+      </c>
+      <c r="B198">
+        <v>121.43564000000001</v>
+      </c>
+      <c r="C198">
+        <v>31.181830000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>42</v>
+      </c>
+      <c r="B199">
+        <v>121.42332399999999</v>
+      </c>
+      <c r="C199">
+        <v>31.170902000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>43</v>
+      </c>
+      <c r="B200">
+        <v>121.42332399999999</v>
+      </c>
+      <c r="C200">
+        <v>31.170902000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201">
+        <v>121.409381</v>
+      </c>
+      <c r="C201">
+        <v>31.165617000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>46</v>
+      </c>
+      <c r="B203">
+        <v>121.441774</v>
+      </c>
+      <c r="C203">
+        <v>31.134567000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>47</v>
+      </c>
+      <c r="B204">
+        <v>121.422488</v>
+      </c>
+      <c r="C204">
+        <v>31.139068000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205">
+        <v>122.32386700000001</v>
+      </c>
+      <c r="C205">
+        <v>29.97176</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>50</v>
+      </c>
+      <c r="B207">
+        <v>122.32386700000001</v>
+      </c>
+      <c r="C207">
+        <v>29.97176</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>51</v>
+      </c>
+      <c r="B208">
+        <v>122.32386700000001</v>
+      </c>
+      <c r="C208">
+        <v>29.97176</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209">
+        <v>122.32386700000001</v>
+      </c>
+      <c r="C209">
+        <v>29.97176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>53</v>
+      </c>
+      <c r="B210">
+        <v>121.51035</v>
+      </c>
+      <c r="C210">
+        <v>31.293517000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>54</v>
+      </c>
+      <c r="B211">
+        <v>121.323789</v>
+      </c>
+      <c r="C211">
+        <v>31.128537000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>55</v>
+      </c>
+      <c r="B212">
+        <v>121.269538</v>
+      </c>
+      <c r="C212">
+        <v>31.005680000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213">
+        <v>121.226411</v>
+      </c>
+      <c r="C213">
+        <v>31.024526000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>57</v>
+      </c>
+      <c r="B214">
+        <v>121.311708</v>
+      </c>
+      <c r="C214">
+        <v>31.136883999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>58</v>
+      </c>
+      <c r="B215">
+        <v>121.28601999999999</v>
+      </c>
+      <c r="C215">
+        <v>31.057487999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>59</v>
+      </c>
+      <c r="B216">
+        <v>121.337001</v>
+      </c>
+      <c r="C216">
+        <v>31.070181000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>60</v>
+      </c>
+      <c r="B217">
+        <v>121.317814</v>
+      </c>
+      <c r="C217">
+        <v>31.035924000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>61</v>
+      </c>
+      <c r="B218">
+        <v>121.248923</v>
+      </c>
+      <c r="C218">
+        <v>31.020576999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>62</v>
+      </c>
+      <c r="B219">
+        <v>121.22363799999999</v>
+      </c>
+      <c r="C219">
+        <v>31.017126999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>63</v>
+      </c>
+      <c r="B220">
+        <v>121.321326</v>
+      </c>
+      <c r="C220">
+        <v>31.145211</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>64</v>
+      </c>
+      <c r="B221">
+        <v>121.31778300000001</v>
+      </c>
+      <c r="C221">
+        <v>31.148731999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>65</v>
+      </c>
+      <c r="B222">
+        <v>121.33692499999999</v>
+      </c>
+      <c r="C222">
+        <v>31.117660000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>66</v>
+      </c>
+      <c r="B223">
+        <v>121.23077499999999</v>
+      </c>
+      <c r="C223">
+        <v>31.135974000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>67</v>
+      </c>
+      <c r="B224">
+        <v>121.270822</v>
+      </c>
+      <c r="C224">
+        <v>31.077691999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>68</v>
+      </c>
+      <c r="B225">
+        <v>121.32892</v>
+      </c>
+      <c r="C225">
+        <v>31.149339000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>69</v>
+      </c>
+      <c r="B226">
+        <v>121.317723</v>
+      </c>
+      <c r="C226">
+        <v>31.152014999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>70</v>
+      </c>
+      <c r="B227">
+        <v>121.33280600000001</v>
+      </c>
+      <c r="C227">
+        <v>31.126740999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>71</v>
+      </c>
+      <c r="B228">
+        <v>121.290854</v>
+      </c>
+      <c r="C228">
+        <v>31.029876999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>72</v>
+      </c>
+      <c r="B229">
+        <v>121.28668399999999</v>
+      </c>
+      <c r="C229">
+        <v>30.971800000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>73</v>
+      </c>
+      <c r="B230">
+        <v>121.296961</v>
+      </c>
+      <c r="C230">
+        <v>31.087529</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>74</v>
+      </c>
+      <c r="B231">
+        <v>121.337001</v>
+      </c>
+      <c r="C231">
+        <v>31.070181000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>75</v>
+      </c>
+      <c r="B232">
+        <v>121.576235</v>
+      </c>
+      <c r="C232">
+        <v>31.245031999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>76</v>
+      </c>
+      <c r="B233">
+        <v>121.59004400000001</v>
+      </c>
+      <c r="C233">
+        <v>31.268833999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>77</v>
+      </c>
+      <c r="B234">
+        <v>121.849131</v>
+      </c>
+      <c r="C234">
+        <v>31.069782</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235">
+        <v>121.507679</v>
+      </c>
+      <c r="C235">
+        <v>31.201554000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>79</v>
+      </c>
+      <c r="B236">
+        <v>121.581597</v>
+      </c>
+      <c r="C236">
+        <v>31.265408000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>80</v>
+      </c>
+      <c r="B237">
+        <v>121.596478</v>
+      </c>
+      <c r="C237">
+        <v>31.256582999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>81</v>
+      </c>
+      <c r="B238">
+        <v>121.5977</v>
+      </c>
+      <c r="C238">
+        <v>31.254750000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>82</v>
+      </c>
+      <c r="B239">
+        <v>121.73762000000001</v>
+      </c>
+      <c r="C239">
+        <v>31.054631000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>83</v>
+      </c>
+      <c r="B240">
+        <v>121.603741</v>
+      </c>
+      <c r="C240">
+        <v>31.279126999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>84</v>
+      </c>
+      <c r="B241">
+        <v>121.582328</v>
+      </c>
+      <c r="C241">
+        <v>31.262974</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>85</v>
+      </c>
+      <c r="B242">
+        <v>121.666663</v>
+      </c>
+      <c r="C242">
+        <v>31.113347000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>86</v>
+      </c>
+      <c r="B243">
+        <v>121.51427</v>
+      </c>
+      <c r="C243">
+        <v>31.206325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>87</v>
+      </c>
+      <c r="B244">
+        <v>121.574922</v>
+      </c>
+      <c r="C244">
+        <v>31.269503</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>88</v>
+      </c>
+      <c r="B245">
+        <v>121.574922</v>
+      </c>
+      <c r="C245">
+        <v>31.269503</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>89</v>
+      </c>
+      <c r="B246">
+        <v>121.60021399999999</v>
+      </c>
+      <c r="C246">
+        <v>31.261513999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>90</v>
+      </c>
+      <c r="B247">
+        <v>121.54325</v>
+      </c>
+      <c r="C247">
+        <v>31.211362000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>91</v>
+      </c>
+      <c r="B248">
+        <v>121.58737499999999</v>
+      </c>
+      <c r="C248">
+        <v>31.255571</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>92</v>
+      </c>
+      <c r="B249">
+        <v>121.591517</v>
+      </c>
+      <c r="C249">
+        <v>31.261139</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>93</v>
+      </c>
+      <c r="B250">
+        <v>121.593739</v>
+      </c>
+      <c r="C250">
+        <v>31.260847999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>94</v>
+      </c>
+      <c r="B251">
+        <v>121.580918</v>
+      </c>
+      <c r="C251">
+        <v>31.267719</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>95</v>
+      </c>
+      <c r="B252">
+        <v>121.561571</v>
+      </c>
+      <c r="C252">
+        <v>31.252977999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>96</v>
+      </c>
+      <c r="B253">
+        <v>121.498648</v>
+      </c>
+      <c r="C253">
+        <v>31.275155000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>97</v>
+      </c>
+      <c r="B254">
+        <v>121.48039300000001</v>
+      </c>
+      <c r="C254">
+        <v>31.284206000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>98</v>
+      </c>
+      <c r="B255">
+        <v>121.49115999999999</v>
+      </c>
+      <c r="C255">
+        <v>31.27403</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>99</v>
+      </c>
+      <c r="B256">
+        <v>121.485995</v>
+      </c>
+      <c r="C256">
+        <v>31.298375</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>100</v>
+      </c>
+      <c r="B257">
+        <v>121.484289</v>
+      </c>
+      <c r="C257">
+        <v>31.256122000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>102</v>
+      </c>
+      <c r="B259">
+        <v>121.429176</v>
+      </c>
+      <c r="C259">
+        <v>31.200703000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>103</v>
+      </c>
+      <c r="B260">
+        <v>121.397459</v>
+      </c>
+      <c r="C260">
+        <v>31.194502</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>104</v>
+      </c>
+      <c r="B261">
+        <v>121.35744</v>
+      </c>
+      <c r="C261">
+        <v>31.146584000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>105</v>
+      </c>
+      <c r="B262">
+        <v>121.414261</v>
+      </c>
+      <c r="C262">
+        <v>31.131640999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>106</v>
+      </c>
+      <c r="B263">
+        <v>121.437279</v>
+      </c>
+      <c r="C263">
+        <v>31.024346999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>107</v>
+      </c>
+      <c r="B264">
+        <v>121.349683</v>
+      </c>
+      <c r="C264">
+        <v>31.133804999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>108</v>
+      </c>
+      <c r="B265">
+        <v>121.43490199999999</v>
+      </c>
+      <c r="C265">
+        <v>31.108976999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>109</v>
+      </c>
+      <c r="B266">
+        <v>121.28309</v>
+      </c>
+      <c r="C266">
+        <v>31.20112</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>110</v>
+      </c>
+      <c r="B267">
+        <v>121.34902099999999</v>
+      </c>
+      <c r="C267">
+        <v>31.140798</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>111</v>
+      </c>
+      <c r="B268">
+        <v>121.400385</v>
+      </c>
+      <c r="C268">
+        <v>31.134347999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>112</v>
+      </c>
+      <c r="B269">
+        <v>121.517578</v>
+      </c>
+      <c r="C269">
+        <v>31.064906000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>113</v>
+      </c>
+      <c r="B270">
+        <v>121.432956</v>
+      </c>
+      <c r="C270">
+        <v>31.114861999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>114</v>
+      </c>
+      <c r="B271">
+        <v>121.428887</v>
+      </c>
+      <c r="C271">
+        <v>31.113057999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>115</v>
+      </c>
+      <c r="B272">
+        <v>121.422883</v>
+      </c>
+      <c r="C272">
+        <v>31.112258000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>116</v>
+      </c>
+      <c r="B273">
+        <v>121.423908</v>
+      </c>
+      <c r="C273">
+        <v>31.113130000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>117</v>
+      </c>
+      <c r="B274">
+        <v>121.423106</v>
+      </c>
+      <c r="C274">
+        <v>31.116969000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>118</v>
+      </c>
+      <c r="B275">
+        <v>121.390494</v>
+      </c>
+      <c r="C275">
+        <v>31.098687999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>119</v>
+      </c>
+      <c r="B276">
+        <v>121.43282499999999</v>
+      </c>
+      <c r="C276">
+        <v>31.122387</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>120</v>
+      </c>
+      <c r="B277">
+        <v>121.41612000000001</v>
+      </c>
+      <c r="C277">
+        <v>31.111740000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>121</v>
+      </c>
+      <c r="B278">
+        <v>121.44258499999999</v>
+      </c>
+      <c r="C278">
+        <v>31.105501</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>122</v>
+      </c>
+      <c r="B279">
+        <v>121.375243</v>
+      </c>
+      <c r="C279">
+        <v>31.0959</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>123</v>
+      </c>
+      <c r="B280">
+        <v>121.494091</v>
+      </c>
+      <c r="C280">
+        <v>31.119247000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>124</v>
+      </c>
+      <c r="B281">
+        <v>121.51819999999999</v>
+      </c>
+      <c r="C281">
+        <v>31.108606999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>125</v>
+      </c>
+      <c r="B282">
+        <v>121.276233</v>
+      </c>
+      <c r="C282">
+        <v>31.245256999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>126</v>
+      </c>
+      <c r="B283">
+        <v>121.41777</v>
+      </c>
+      <c r="C283">
+        <v>31.12846</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>127</v>
+      </c>
+      <c r="B284">
+        <v>121.41741500000001</v>
+      </c>
+      <c r="C284">
+        <v>31.128443999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>128</v>
+      </c>
+      <c r="B285">
+        <v>121.402733</v>
+      </c>
+      <c r="C285">
+        <v>31.126422999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>129</v>
+      </c>
+      <c r="B286">
+        <v>121.432942</v>
+      </c>
+      <c r="C286">
+        <v>31.113094</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>130</v>
+      </c>
+      <c r="B287">
+        <v>121.402627</v>
+      </c>
+      <c r="C287">
+        <v>31.143667000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>131</v>
+      </c>
+      <c r="B288">
+        <v>121.42433</v>
+      </c>
+      <c r="C288">
+        <v>31.124099999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>132</v>
+      </c>
+      <c r="B289">
+        <v>121.425014</v>
+      </c>
+      <c r="C289">
+        <v>31.117502999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>133</v>
+      </c>
+      <c r="B290">
+        <v>121.427481</v>
+      </c>
+      <c r="C290">
+        <v>31.116313000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>134</v>
+      </c>
+      <c r="B291">
+        <v>121.42993300000001</v>
+      </c>
+      <c r="C291">
+        <v>31.112168</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>135</v>
+      </c>
+      <c r="B292">
+        <v>121.42822099999999</v>
+      </c>
+      <c r="C292">
+        <v>31.106884000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>136</v>
+      </c>
+      <c r="B293">
+        <v>121.427627</v>
+      </c>
+      <c r="C293">
+        <v>31.115935</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>137</v>
+      </c>
+      <c r="B294">
+        <v>121.371781</v>
+      </c>
+      <c r="C294">
+        <v>31.130147999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>138</v>
+      </c>
+      <c r="B295">
+        <v>121.4588</v>
+      </c>
+      <c r="C295">
+        <v>31.086109</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>139</v>
+      </c>
+      <c r="B296">
+        <v>121.3877</v>
+      </c>
+      <c r="C296">
+        <v>31.128288999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>140</v>
+      </c>
+      <c r="B297">
+        <v>121.26451900000001</v>
+      </c>
+      <c r="C297">
+        <v>31.196394000000002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>141</v>
+      </c>
+      <c r="B298">
+        <v>121.120925</v>
+      </c>
+      <c r="C298">
+        <v>31.148458000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>142</v>
+      </c>
+      <c r="B299">
+        <v>121.15881899999999</v>
+      </c>
+      <c r="C299">
+        <v>31.154496000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>143</v>
+      </c>
+      <c r="B300">
+        <v>121.15871199999999</v>
+      </c>
+      <c r="C300">
+        <v>31.144577000000002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>144</v>
+      </c>
+      <c r="B301">
+        <v>121.264287</v>
+      </c>
+      <c r="C301">
+        <v>31.156262000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>145</v>
+      </c>
+      <c r="B302">
+        <v>121.266398</v>
+      </c>
+      <c r="C302">
+        <v>31.173987</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>146</v>
+      </c>
+      <c r="B303">
+        <v>121.300978</v>
+      </c>
+      <c r="C303">
+        <v>31.181570000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>147</v>
+      </c>
+      <c r="B304">
+        <v>121.239796</v>
+      </c>
+      <c r="C304">
+        <v>31.157678000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>148</v>
+      </c>
+      <c r="B305">
+        <v>121.19605300000001</v>
+      </c>
+      <c r="C305">
+        <v>31.149273999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>149</v>
+      </c>
+      <c r="B306">
+        <v>121.477693</v>
+      </c>
+      <c r="C306">
+        <v>31.245719999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>150</v>
+      </c>
+      <c r="B307">
+        <v>121.472038</v>
+      </c>
+      <c r="C307">
+        <v>31.26192</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>151</v>
+      </c>
+      <c r="B308">
+        <v>121.464206</v>
+      </c>
+      <c r="C308">
+        <v>31.269508999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>152</v>
+      </c>
+      <c r="B309">
+        <v>121.44015</v>
+      </c>
+      <c r="C309">
+        <v>31.229738000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>153</v>
+      </c>
+      <c r="B310">
+        <v>121.42458999999999</v>
+      </c>
+      <c r="C310">
+        <v>31.282454999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>154</v>
+      </c>
+      <c r="B311">
+        <v>121.474148</v>
+      </c>
+      <c r="C311">
+        <v>31.209059</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>155</v>
+      </c>
+      <c r="B312">
+        <v>121.481362</v>
+      </c>
+      <c r="C312">
+        <v>31.201284999999999</v>
       </c>
     </row>
   </sheetData>

--- a/virusPlace.xlsx
+++ b/virusPlace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilapi\PycharmProjects\virusmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E82326-E7B1-473F-BAEF-C2A28563AF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9227617-4F9F-426B-808C-C6F83F11560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{F0A26D36-A3B7-4B1C-9A22-2AFA87BA2440}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{A6211AE5-B3C0-4A0D-8458-63B58D31B2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="524">
   <si>
     <t>嘉定区南新路219弄</t>
   </si>
@@ -33,6 +33,15 @@
     <t>嘉定区双单路1509弄龙湖郦城</t>
   </si>
   <si>
+    <t>嘉定区和静路1060号</t>
+  </si>
+  <si>
+    <t>嘉定区嘉唐公路169弄</t>
+  </si>
+  <si>
+    <t>嘉定区嘉绣路955弄</t>
+  </si>
+  <si>
     <t>嘉定区城中路20号</t>
   </si>
   <si>
@@ -60,6 +69,12 @@
     <t>嘉定区宝安公路3705弄</t>
   </si>
   <si>
+    <t>嘉定区宝安公路李家村</t>
+  </si>
+  <si>
+    <t>嘉定区宝翔路560弄</t>
+  </si>
+  <si>
     <t>嘉定区崇文路1855号</t>
   </si>
   <si>
@@ -72,6 +87,15 @@
     <t>嘉定区新宝路88弄</t>
   </si>
   <si>
+    <t>嘉定区曲江路100弄</t>
+  </si>
+  <si>
+    <t>嘉定区樱花街116弄</t>
+  </si>
+  <si>
+    <t>嘉定区沈徐路129弄</t>
+  </si>
+  <si>
     <t>嘉定区沪宜公路2800弄</t>
   </si>
   <si>
@@ -93,6 +117,12 @@
     <t>嘉定区科盛路1065号</t>
   </si>
   <si>
+    <t>嘉定区红卫村</t>
+  </si>
+  <si>
+    <t>嘉定区菊园新区棋盘路998弄</t>
+  </si>
+  <si>
     <t>嘉定区裕民南路336弄</t>
   </si>
   <si>
@@ -102,9 +132,15 @@
     <t>嘉定区陇南路嘉涛路停车场</t>
   </si>
   <si>
+    <t>嘉定区龙湖郦城1509弄</t>
+  </si>
+  <si>
     <t>奉贤区万顺路2768弄</t>
   </si>
   <si>
+    <t>奉贤区吴房村</t>
+  </si>
+  <si>
     <t>奉贤区百团路198弄</t>
   </si>
   <si>
@@ -114,6 +150,9 @@
     <t>宝山区共富二村</t>
   </si>
   <si>
+    <t>宝山区友谊四村</t>
+  </si>
+  <si>
     <t>宝山区友谊路1869弄</t>
   </si>
   <si>
@@ -123,6 +162,18 @@
     <t>宝山区塘后路285弄</t>
   </si>
   <si>
+    <t>宝山区大康路1079弄</t>
+  </si>
+  <si>
+    <t>宝山区宝林一村</t>
+  </si>
+  <si>
+    <t>宝山区宝钢十一村</t>
+  </si>
+  <si>
+    <t>宝山区庆安一村</t>
+  </si>
+  <si>
     <t>宝山区德都路399弄</t>
   </si>
   <si>
@@ -135,9 +186,15 @@
     <t>宝山区沈家桥柏家宅</t>
   </si>
   <si>
+    <t>宝山区沈巷杨家宅</t>
+  </si>
+  <si>
     <t>宝山区泗塘一村</t>
   </si>
   <si>
+    <t>宝山区淞兴西路268号</t>
+  </si>
+  <si>
     <t>宝山区淞良路201弄</t>
   </si>
   <si>
@@ -150,6 +207,9 @@
     <t>宝山区美丹路1033弄</t>
   </si>
   <si>
+    <t>宝山区聚丰园路188弄</t>
+  </si>
+  <si>
     <t>宝山区聚源桥村严家桥</t>
   </si>
   <si>
@@ -168,27 +228,48 @@
     <t>宝山区长江路868号</t>
   </si>
   <si>
+    <t>宝山区长白山路633弄</t>
+  </si>
+  <si>
+    <t>宝山区高跃路133弄</t>
+  </si>
+  <si>
     <t>宝山区鹤林路58弄</t>
   </si>
   <si>
     <t>徐汇区华发路368弄</t>
   </si>
   <si>
+    <t>徐汇区华发路406弄</t>
+  </si>
+  <si>
     <t>徐汇区华泾路880弄</t>
   </si>
   <si>
     <t>徐汇区天等路430弄</t>
   </si>
   <si>
+    <t>徐汇区宛平南路485弄</t>
+  </si>
+  <si>
     <t>徐汇区宜山路250弄</t>
   </si>
   <si>
     <t>徐汇区宜山路600号</t>
   </si>
   <si>
+    <t>徐汇区宜山路670号</t>
+  </si>
+  <si>
+    <t>徐汇区宜山路829号</t>
+  </si>
+  <si>
     <t>徐汇区宜山路上海精工工地宿舍</t>
   </si>
   <si>
+    <t>徐汇区柳州路460号</t>
+  </si>
+  <si>
     <t>徐汇区梅陇七村</t>
   </si>
   <si>
@@ -201,6 +282,9 @@
     <t>徐汇区永嘉路291弄</t>
   </si>
   <si>
+    <t>徐汇区沪闵路9490号</t>
+  </si>
+  <si>
     <t>徐汇区漕溪北路1200号</t>
   </si>
   <si>
@@ -231,33 +315,63 @@
     <t>徐汇区长桥三村</t>
   </si>
   <si>
+    <t>徐汇区龙华西路20号</t>
+  </si>
+  <si>
     <t>徐汇区龙吴路1717弄</t>
   </si>
   <si>
     <t>徐汇区龙州路995-1号</t>
   </si>
   <si>
+    <t>徐汇区龙水南路336弄</t>
+  </si>
+  <si>
     <t>普陀区三源路41弄</t>
   </si>
   <si>
     <t>普陀区中山北路1297弄</t>
   </si>
   <si>
+    <t>普陀区交通西路48弄</t>
+  </si>
+  <si>
+    <t>普陀区光新路256弄</t>
+  </si>
+  <si>
+    <t>普陀区宜君路80弄</t>
+  </si>
+  <si>
+    <t>普陀区岚皋西路342弄</t>
+  </si>
+  <si>
     <t>普陀区桃浦路2055弄</t>
   </si>
   <si>
+    <t>普陀区灵石路1197号</t>
+  </si>
+  <si>
     <t>普陀区真南路1051弄</t>
   </si>
   <si>
     <t>普陀区石泉东路168弄</t>
   </si>
   <si>
+    <t>普陀区石泉东路240弄</t>
+  </si>
+  <si>
     <t>杨浦区国定路277弄</t>
   </si>
   <si>
+    <t>松江区九亭中心路503弄</t>
+  </si>
+  <si>
     <t>松江区九亭镇庄家村</t>
   </si>
   <si>
+    <t>松江区九新公路180弄</t>
+  </si>
+  <si>
     <t>松江区北松公路6700弄</t>
   </si>
   <si>
@@ -267,12 +381,12 @@
     <t>松江区博安路32弄</t>
   </si>
   <si>
+    <t>松江区同利路59号</t>
+  </si>
+  <si>
     <t>松江区新庙三路916弄</t>
   </si>
   <si>
-    <t>松江区新桥镇陈春公路801弄</t>
-  </si>
-  <si>
     <t>松江区新飞路1999弄</t>
   </si>
   <si>
@@ -294,6 +408,12 @@
     <t>松江区沪松公路1100号</t>
   </si>
   <si>
+    <t>松江区沪松公路2517弄</t>
+  </si>
+  <si>
+    <t>松江区泽悦路326弄</t>
+  </si>
+  <si>
     <t>松江区洞坤路168弄</t>
   </si>
   <si>
@@ -333,6 +453,9 @@
     <t>浦东新区云山路1395弄</t>
   </si>
   <si>
+    <t>浦东新区五莲路759弄</t>
+  </si>
+  <si>
     <t>浦东新区五莲路780弄</t>
   </si>
   <si>
@@ -348,6 +471,9 @@
     <t>浦东新区南码头东三街35弄</t>
   </si>
   <si>
+    <t>浦东新区南芦公路19弄</t>
+  </si>
+  <si>
     <t>浦东新区博兴路462弄</t>
   </si>
   <si>
@@ -363,6 +489,9 @@
     <t>浦东新区听谐路86弄</t>
   </si>
   <si>
+    <t>浦东新区听达路325弄</t>
+  </si>
+  <si>
     <t>浦东新区巨峰路758弄</t>
   </si>
   <si>
@@ -375,12 +504,12 @@
     <t>浦东新区棋杆村</t>
   </si>
   <si>
+    <t>浦东新区浦三路12弄</t>
+  </si>
+  <si>
     <t>浦东新区浦东南路2200号</t>
   </si>
   <si>
-    <t>浦东新区浦东大道2778弄</t>
-  </si>
-  <si>
     <t>浦东新区浦东大道2778弄。因出现发热症状前往医疗机构发热门诊就诊</t>
   </si>
   <si>
@@ -390,9 +519,15 @@
     <t>浦东新区瓦屑建设路60弄</t>
   </si>
   <si>
+    <t>浦东新区祝桥镇邓一村</t>
+  </si>
+  <si>
     <t>浦东新区花木路500弄</t>
   </si>
   <si>
+    <t>浦东新区花木路718弄</t>
+  </si>
+  <si>
     <t>浦东新区金工路133弄</t>
   </si>
   <si>
@@ -426,6 +561,9 @@
     <t>虹口区曲阳路440号</t>
   </si>
   <si>
+    <t>虹口区虹湾路55弄</t>
+  </si>
+  <si>
     <t>虹口区逸仙路288弄</t>
   </si>
   <si>
@@ -435,6 +573,9 @@
     <t>金山区学府路1811弄</t>
   </si>
   <si>
+    <t>金山区恒康路258弄</t>
+  </si>
+  <si>
     <t>长宁区仙霞西路885弄</t>
   </si>
   <si>
@@ -450,6 +591,9 @@
     <t>闵行区七莘路2628弄</t>
   </si>
   <si>
+    <t>闵行区上中西路735弄</t>
+  </si>
+  <si>
     <t>闵行区上中西路810弄</t>
   </si>
   <si>
@@ -480,6 +624,9 @@
     <t>闵行区德宏路2465号</t>
   </si>
   <si>
+    <t>闵行区报春路399弄</t>
+  </si>
+  <si>
     <t>闵行区昌林路430号</t>
   </si>
   <si>
@@ -507,6 +654,9 @@
     <t>闵行区普洱路88弄</t>
   </si>
   <si>
+    <t>闵行区普联路150弄</t>
+  </si>
+  <si>
     <t>闵行区景谷中路58弄</t>
   </si>
   <si>
@@ -519,6 +669,9 @@
     <t>闵行区永联村吴介巷</t>
   </si>
   <si>
+    <t>闵行区江川路1552号</t>
+  </si>
+  <si>
     <t>闵行区江川路1565号</t>
   </si>
   <si>
@@ -534,12 +687,21 @@
     <t>闵行区浦星公路568弄</t>
   </si>
   <si>
+    <t>闵行区浦江镇知新村</t>
+  </si>
+  <si>
     <t>闵行区申郑路18弄</t>
   </si>
   <si>
     <t>闵行区知新村</t>
   </si>
   <si>
+    <t>闵行区紫星路1588号</t>
+  </si>
+  <si>
+    <t>闵行区繁安路59弄</t>
+  </si>
+  <si>
     <t>闵行区纪东村</t>
   </si>
   <si>
@@ -555,6 +717,12 @@
     <t>闵行区老沪闵路1351弄</t>
   </si>
   <si>
+    <t>闵行区莘浜路155号</t>
+  </si>
+  <si>
+    <t>闵行区莲花南路425弄</t>
+  </si>
+  <si>
     <t>闵行区莲花路528弄</t>
   </si>
   <si>
@@ -579,6 +747,9 @@
     <t>闵行区银都路3151弄</t>
   </si>
   <si>
+    <t>闵行区陈南路386号</t>
+  </si>
+  <si>
     <t>闵行区鲁康路555弄</t>
   </si>
   <si>
@@ -624,9 +795,6 @@
     <t>青浦区赵巷和睦村</t>
   </si>
   <si>
-    <t>青浦区赵巷镇崧润路德康雅苑</t>
-  </si>
-  <si>
     <t>静安区塘沽路747弄</t>
   </si>
   <si>
@@ -642,12 +810,12 @@
     <t>静安区武定路1128弄</t>
   </si>
   <si>
+    <t>静安区永兴路595弄</t>
+  </si>
+  <si>
     <t>静安区沪太路1329弄</t>
   </si>
   <si>
-    <t>静安区灵石路1197号</t>
-  </si>
-  <si>
     <t>静安区茂名北路93号</t>
   </si>
   <si>
@@ -660,6 +828,9 @@
     <t>黄浦区淮海东路89弄</t>
   </si>
   <si>
+    <t>黄浦区瑞金二路33号</t>
+  </si>
+  <si>
     <t>黄浦区瞿溪路811弄</t>
   </si>
   <si>
@@ -675,6 +846,15 @@
     <t>121.252507,31.326742</t>
   </si>
   <si>
+    <t>121.169182,31.301282</t>
+  </si>
+  <si>
+    <t>121.234488,31.456233</t>
+  </si>
+  <si>
+    <t>121.283846,31.312452</t>
+  </si>
+  <si>
     <t>121.250059,31.377874</t>
   </si>
   <si>
@@ -702,6 +882,12 @@
     <t>121.267440,31.324290</t>
   </si>
   <si>
+    <t>121.339175,31.339938</t>
+  </si>
+  <si>
+    <t>121.322436,31.309540</t>
+  </si>
+  <si>
     <t>121.259940,31.322333</t>
   </si>
   <si>
@@ -714,6 +900,15 @@
     <t>121.201169,31.395802</t>
   </si>
   <si>
+    <t>121.346498,31.254337</t>
+  </si>
+  <si>
+    <t>121.280234,31.329456</t>
+  </si>
+  <si>
+    <t>121.265324,31.320543</t>
+  </si>
+  <si>
     <t>121.268483,31.354514</t>
   </si>
   <si>
@@ -735,6 +930,12 @@
     <t>121.327056,31.344327</t>
   </si>
   <si>
+    <t>121.267673,31.266124</t>
+  </si>
+  <si>
+    <t>121.256688,31.398329</t>
+  </si>
+  <si>
     <t>121.276686,31.334631</t>
   </si>
   <si>
@@ -747,6 +948,9 @@
     <t>121.516425,30.963685</t>
   </si>
   <si>
+    <t>121.535165,30.892459</t>
+  </si>
+  <si>
     <t>121.516073,30.954627</t>
   </si>
   <si>
@@ -756,6 +960,9 @@
     <t>121.432024,31.350242</t>
   </si>
   <si>
+    <t>121.491327,31.412139</t>
+  </si>
+  <si>
     <t>121.444750,31.394410</t>
   </si>
   <si>
@@ -765,6 +972,18 @@
     <t>121.504424,31.399511</t>
   </si>
   <si>
+    <t>121.426054,31.322010</t>
+  </si>
+  <si>
+    <t>121.483390,31.400515</t>
+  </si>
+  <si>
+    <t>121.484647,31.410407</t>
+  </si>
+  <si>
+    <t>121.435802,31.407565</t>
+  </si>
+  <si>
     <t>121.422950,31.418930</t>
   </si>
   <si>
@@ -777,9 +996,15 @@
     <t>121.389838,31.450614</t>
   </si>
   <si>
+    <t>121.365060,31.332231</t>
+  </si>
+  <si>
     <t>121.453984,31.338627</t>
   </si>
   <si>
+    <t>121.485526,31.366973</t>
+  </si>
+  <si>
     <t>121.488715,31.341286</t>
   </si>
   <si>
@@ -792,6 +1017,9 @@
     <t>121.337374,31.392178</t>
   </si>
   <si>
+    <t>121.384842,31.312989</t>
+  </si>
+  <si>
     <t>121.381890,31.442174</t>
   </si>
   <si>
@@ -810,27 +1038,48 @@
     <t>121.482592,31.347071</t>
   </si>
   <si>
+    <t>121.489612,31.405457</t>
+  </si>
+  <si>
+    <t>121.472847,31.317812</t>
+  </si>
+  <si>
     <t>121.402315,31.446231</t>
   </si>
   <si>
     <t>121.447570,31.127940</t>
   </si>
   <si>
+    <t>121.447458,31.127234</t>
+  </si>
+  <si>
     <t>121.447009,31.120419</t>
   </si>
   <si>
     <t>121.427241,31.138340</t>
   </si>
   <si>
+    <t>121.448846,31.189750</t>
+  </si>
+  <si>
     <t>121.429540,31.189025</t>
   </si>
   <si>
     <t>121.423513,31.177682</t>
   </si>
   <si>
+    <t>121.419489,31.175517</t>
+  </si>
+  <si>
+    <t>121.406556,31.172012</t>
+  </si>
+  <si>
     <t>121.431310,31.191820</t>
   </si>
   <si>
+    <t>121.423394,31.172172</t>
+  </si>
+  <si>
     <t>121.423966,31.139043</t>
   </si>
   <si>
@@ -843,6 +1092,9 @@
     <t>121.458379,31.208243</t>
   </si>
   <si>
+    <t>121.433727,31.164666</t>
+  </si>
+  <si>
     <t>121.435640,31.181830</t>
   </si>
   <si>
@@ -867,21 +1119,33 @@
     <t>121.441774,31.134567</t>
   </si>
   <si>
+    <t>121.453349,31.170845</t>
+  </si>
+  <si>
     <t>121.453004,31.131703</t>
   </si>
   <si>
     <t>121.422488,31.139068</t>
   </si>
   <si>
+    <t>121.452688,31.153378</t>
+  </si>
+  <si>
     <t>122.323867,29.971760</t>
   </si>
   <si>
     <t>121.510350,31.293517</t>
   </si>
   <si>
+    <t>121.329754,31.116183</t>
+  </si>
+  <si>
     <t>121.323789,31.128537</t>
   </si>
   <si>
+    <t>121.319693,31.129313</t>
+  </si>
+  <si>
     <t>121.269538,31.005680</t>
   </si>
   <si>
@@ -891,69 +1155,81 @@
     <t>121.311708,31.136884</t>
   </si>
   <si>
+    <t>121.315884,31.108682</t>
+  </si>
+  <si>
     <t>121.286020,31.057488</t>
   </si>
   <si>
+    <t>121.317814,31.035924</t>
+  </si>
+  <si>
+    <t>121.248923,31.020577</t>
+  </si>
+  <si>
+    <t>121.223638,31.017127</t>
+  </si>
+  <si>
+    <t>121.321326,31.145211</t>
+  </si>
+  <si>
+    <t>121.317783,31.148732</t>
+  </si>
+  <si>
+    <t>121.336925,31.117660</t>
+  </si>
+  <si>
+    <t>121.329813,31.146431</t>
+  </si>
+  <si>
+    <t>121.287100,31.113926</t>
+  </si>
+  <si>
+    <t>121.248242,31.103885</t>
+  </si>
+  <si>
+    <t>121.230775,31.135974</t>
+  </si>
+  <si>
+    <t>121.270822,31.077692</t>
+  </si>
+  <si>
+    <t>121.328920,31.149339</t>
+  </si>
+  <si>
+    <t>121.317723,31.152015</t>
+  </si>
+  <si>
+    <t>121.332806,31.126741</t>
+  </si>
+  <si>
+    <t>121.245803,31.092763</t>
+  </si>
+  <si>
+    <t>121.252186,31.011373</t>
+  </si>
+  <si>
+    <t>121.290854,31.029877</t>
+  </si>
+  <si>
+    <t>121.257617,31.061446</t>
+  </si>
+  <si>
+    <t>121.286684,30.971800</t>
+  </si>
+  <si>
+    <t>121.296961,31.087529</t>
+  </si>
+  <si>
     <t>121.337001,31.070181</t>
   </si>
   <si>
-    <t>121.317814,31.035924</t>
-  </si>
-  <si>
-    <t>121.248923,31.020577</t>
-  </si>
-  <si>
-    <t>121.223638,31.017127</t>
-  </si>
-  <si>
-    <t>121.321326,31.145211</t>
-  </si>
-  <si>
-    <t>121.317783,31.148732</t>
-  </si>
-  <si>
-    <t>121.336925,31.117660</t>
-  </si>
-  <si>
-    <t>121.329813,31.146431</t>
-  </si>
-  <si>
-    <t>121.230775,31.135974</t>
-  </si>
-  <si>
-    <t>121.270822,31.077692</t>
-  </si>
-  <si>
-    <t>121.328920,31.149339</t>
-  </si>
-  <si>
-    <t>121.317723,31.152015</t>
-  </si>
-  <si>
-    <t>121.332806,31.126741</t>
-  </si>
-  <si>
-    <t>121.245803,31.092763</t>
-  </si>
-  <si>
-    <t>121.252186,31.011373</t>
-  </si>
-  <si>
-    <t>121.290854,31.029877</t>
-  </si>
-  <si>
-    <t>121.257617,31.061446</t>
-  </si>
-  <si>
-    <t>121.286684,30.971800</t>
-  </si>
-  <si>
-    <t>121.296961,31.087529</t>
-  </si>
-  <si>
     <t>121.576235,31.245032</t>
   </si>
   <si>
+    <t>121.590027,31.271397</t>
+  </si>
+  <si>
     <t>121.590044,31.268834</t>
   </si>
   <si>
@@ -969,6 +1245,9 @@
     <t>121.507679,31.201554</t>
   </si>
   <si>
+    <t>121.715085,31.033609</t>
+  </si>
+  <si>
     <t>121.581597,31.265408</t>
   </si>
   <si>
@@ -984,6 +1263,9 @@
     <t>121.751601,31.053467</t>
   </si>
   <si>
+    <t>121.755779,31.067371</t>
+  </si>
+  <si>
     <t>121.603741,31.279127</t>
   </si>
   <si>
@@ -996,6 +1278,9 @@
     <t>121.666663,31.113347</t>
   </si>
   <si>
+    <t>121.509904,31.196385</t>
+  </si>
+  <si>
     <t>121.514270,31.206325</t>
   </si>
   <si>
@@ -1008,9 +1293,15 @@
     <t>121.653876,31.109822</t>
   </si>
   <si>
+    <t>121.751051,31.136034</t>
+  </si>
+  <si>
     <t>121.543250,31.211362</t>
   </si>
   <si>
+    <t>121.548467,31.209199</t>
+  </si>
+  <si>
     <t>121.587375,31.255571</t>
   </si>
   <si>
@@ -1041,6 +1332,9 @@
     <t>121.491160,31.274030</t>
   </si>
   <si>
+    <t>121.474565,31.311764</t>
+  </si>
+  <si>
     <t>121.485995,31.298375</t>
   </si>
   <si>
@@ -1050,6 +1344,9 @@
     <t>121.314816,30.747852</t>
   </si>
   <si>
+    <t>121.338047,30.857585</t>
+  </si>
+  <si>
     <t>121.363775,31.212032</t>
   </si>
   <si>
@@ -1062,6 +1359,9 @@
     <t>121.357440,31.146584</t>
   </si>
   <si>
+    <t>121.417979,31.130759</t>
+  </si>
+  <si>
     <t>121.414261,31.131641</t>
   </si>
   <si>
@@ -1092,6 +1392,9 @@
     <t>121.434264,31.012477</t>
   </si>
   <si>
+    <t>121.388858,31.123170</t>
+  </si>
+  <si>
     <t>121.517578,31.064906</t>
   </si>
   <si>
@@ -1119,6 +1422,9 @@
     <t>121.390494,31.098688</t>
   </si>
   <si>
+    <t>121.545400,31.056406</t>
+  </si>
+  <si>
     <t>121.416412,31.019843</t>
   </si>
   <si>
@@ -1131,6 +1437,9 @@
     <t>121.442585,31.105501</t>
   </si>
   <si>
+    <t>121.374407,30.994996</t>
+  </si>
+  <si>
     <t>121.371430,30.993532</t>
   </si>
   <si>
@@ -1146,10 +1455,16 @@
     <t>121.494091,31.119247</t>
   </si>
   <si>
+    <t>121.518200,31.108607</t>
+  </si>
+  <si>
     <t>121.311301,31.203563</t>
   </si>
   <si>
-    <t>121.518200,31.108607</t>
+    <t>121.442895,31.022503</t>
+  </si>
+  <si>
+    <t>121.393120,31.062705</t>
   </si>
   <si>
     <t>121.276233,31.245257</t>
@@ -1167,6 +1482,12 @@
     <t>121.432942,31.113094</t>
   </si>
   <si>
+    <t>121.377834,31.105512</t>
+  </si>
+  <si>
+    <t>121.428351,31.071080</t>
+  </si>
+  <si>
     <t>121.402627,31.143667</t>
   </si>
   <si>
@@ -1191,6 +1512,9 @@
     <t>121.400071,31.091548</t>
   </si>
   <si>
+    <t>121.500679,31.089953</t>
+  </si>
+  <si>
     <t>121.515889,31.027641</t>
   </si>
   <si>
@@ -1236,9 +1560,6 @@
     <t>121.239796,31.157678</t>
   </si>
   <si>
-    <t>121.196053,31.149274</t>
-  </si>
-  <si>
     <t>121.481379,31.245940</t>
   </si>
   <si>
@@ -1254,12 +1575,12 @@
     <t>121.440150,31.229738</t>
   </si>
   <si>
+    <t>121.466318,31.252060</t>
+  </si>
+  <si>
     <t>121.424590,31.282455</t>
   </si>
   <si>
-    <t>121.426841,31.272328</t>
-  </si>
-  <si>
     <t>121.474831,31.257754</t>
   </si>
   <si>
@@ -1267,6 +1588,9 @@
   </si>
   <si>
     <t>121.481769,31.225039</t>
+  </si>
+  <si>
+    <t>121.465795,31.210909</t>
   </si>
   <si>
     <t>121.481362,31.201285</t>
@@ -1635,8 +1959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78211A64-C294-4266-95D7-0E5A7DDDEFC6}">
-  <dimension ref="A1:B214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B771D32C-E898-4AE5-B2C9-CB7AA6594248}">
+  <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1687,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,7 +2035,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +2059,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +2075,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +2091,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +2107,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +2115,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +2123,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +2139,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +2147,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +2155,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +2163,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +2171,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,7 +2179,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +2187,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +2195,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +2203,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +2211,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +2219,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +2227,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +2235,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +2251,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +2259,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +2267,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +2275,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +2283,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +2291,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,7 +2299,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +2307,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +2315,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +2323,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2331,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2339,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2347,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2355,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,7 +2363,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +2371,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2379,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +2387,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2395,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2403,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2411,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +2419,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2427,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2111,7 +2435,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,7 +2443,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2127,7 +2451,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2135,7 +2459,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2143,7 +2467,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2475,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +2483,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2167,20 +2491,23 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2515,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2523,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,20 +2531,23 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2555,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2563,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2571,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2579,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>284</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,7 +2587,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>285</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2595,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,7 +2603,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2611,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,7 +2619,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2297,7 +2627,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2305,7 +2635,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,7 +2643,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2321,7 +2651,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2659,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2667,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,7 +2675,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2683,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2691,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2699,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2707,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,23 +2715,20 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2736,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2744,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2752,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2760,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,23 +2768,20 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2789,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2797,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2805,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2813,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2821,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2829,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2845,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2853,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2861,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2869,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2877,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2885,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2569,7 +2893,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2901,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2909,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2917,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2601,7 +2925,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2609,7 +2933,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2941,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2625,7 +2949,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2633,7 +2957,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2965,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2973,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2981,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,20 +2989,23 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
+      <c r="B130" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +3013,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +3021,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +3029,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +3037,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +3045,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,20 +3053,23 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
+      <c r="B138" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2747,7 +3077,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2755,7 +3085,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2763,7 +3093,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2771,7 +3101,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2779,7 +3109,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2787,7 +3117,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2795,7 +3125,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2803,7 +3133,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,7 +3141,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +3149,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2827,7 +3157,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2835,7 +3165,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2843,7 +3173,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2851,7 +3181,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2859,7 +3189,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2867,7 +3197,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +3205,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2883,7 +3213,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2891,7 +3221,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +3229,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +3237,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,7 +3245,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2923,7 +3253,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2931,7 +3261,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2939,7 +3269,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +3277,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2955,7 +3285,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2963,7 +3293,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2971,7 +3301,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2979,7 +3309,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2987,7 +3317,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2995,7 +3325,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3003,7 +3333,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3011,7 +3341,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,23 +3349,20 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3043,7 +3370,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3051,7 +3378,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,7 +3386,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3067,7 +3394,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3075,7 +3402,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3083,7 +3410,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +3418,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3099,23 +3426,20 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3123,7 +3447,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3131,7 +3455,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3139,7 +3463,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3147,7 +3471,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,7 +3479,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3163,7 +3487,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +3495,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3179,7 +3503,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3187,7 +3511,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3195,7 +3519,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3203,7 +3527,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3211,7 +3535,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3219,7 +3543,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3227,7 +3551,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3235,7 +3559,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3243,7 +3567,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3251,7 +3575,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,7 +3583,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3267,7 +3591,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3275,7 +3599,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3283,20 +3607,23 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
+      <c r="B208" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3304,7 +3631,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3639,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,20 +3647,473 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
+      <c r="B213" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>415</v>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
